--- a/Fase 2/Evidencias Proyecto/Sprint 3/Burndown Chart Sprint 3.xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprint 3/Burndown Chart Sprint 3.xlsx
@@ -1,13 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5459F60A-75FB-4EB7-8E4E-6BE4D267B3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="/fpTf46Ro8brMhrGj/DwTyS3CfygqvYowua5BN65nPU="/>
     </ext>
@@ -39,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="d\ mmmm\ yyyy"/>
@@ -47,19 +65,19 @@
   </numFmts>
   <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -69,44 +87,61 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -123,7 +158,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0">
+              <a:rPr lang="en-US" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -136,12 +171,18 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Esperado</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -153,21 +194,120 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Hoja 1'!$A$7:$A$20</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>dd\ mmmm\ yyyy</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>45586</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45587</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45589</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45590</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45591</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45592</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45593</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45594</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45595</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45598</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Hoja 1'!$B$7:$B$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>42.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.857142857142861</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.571428571428577</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.714285714285722</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.428571428571438</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.142857142857153</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.8571428571428683</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5714285714285827</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2857142857142971</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1546319456101628E-14</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F61-4350-8345-2A6A7B0AABFC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Real</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -179,23 +319,128 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Hoja 1'!$A$7:$A$20</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>dd\ mmmm\ yyyy</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>45586</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45587</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45589</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45590</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45591</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45592</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45593</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45594</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45595</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45598</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Hoja 1'!$C$7:$C$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F61-4350-8345-2A6A7B0AABFC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="1857708893"/>
-        <c:axId val="259484601"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2083801736"/>
+        <c:axId val="197062738"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="1857708893"/>
+      <c:dateAx>
+        <c:axId val="2083801736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -216,7 +461,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" i="0">
+                  <a:rPr lang="en-US" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -229,10 +474,10 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="dd\ mmmm\ yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-1800000"/>
           <a:lstStyle/>
@@ -245,12 +490,17 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259484601"/>
-      </c:catAx>
+        <c:crossAx val="197062738"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="259484601"/>
+        <c:axId val="197062738"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -290,21 +540,13 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -323,9 +565,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1857708893"/>
+        <c:crossAx val="2083801736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -343,16 +588,24 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -360,10 +613,16 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8124825" cy="4562475"/>
-    <xdr:graphicFrame>
+    <xdr:ext cx="8277225" cy="4562475"/>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="251308083" name="Chart 1" title="Gráfico"/>
+        <xdr:cNvPr id="251308083" name="Chart 1" title="Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033A8FA0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -372,7 +631,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -382,7 +641,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -572,51 +831,53 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.38"/>
-    <col customWidth="1" min="2" max="3" width="12.63"/>
-    <col customWidth="1" min="4" max="4" width="14.63"/>
-    <col customWidth="1" min="5" max="6" width="12.63"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1"/>
-    <row r="3" ht="15.75" customHeight="1"/>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2">
         <f>(B5/14)</f>
-        <v>4.214285714</v>
+        <v>3.2857142857142856</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>59.0</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -630,242 +891,242 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="6">
-        <v>45586.0</v>
+        <v>45586</v>
       </c>
       <c r="B7" s="2">
         <f>B5-$B$4</f>
-        <v>54.78571429</v>
+        <v>42.714285714285715</v>
       </c>
       <c r="C7" s="7">
         <f>B5-D7</f>
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7">
-        <v>4.0</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="6">
-        <v>45587.0</v>
+        <v>45587</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" ref="B8:B20" si="1">B7-$B$4</f>
-        <v>50.57142857</v>
+        <f t="shared" ref="B8:B20" si="0">B7-$B$4</f>
+        <v>39.428571428571431</v>
       </c>
       <c r="C8" s="7">
-        <f t="shared" ref="C8:C20" si="2">C7-D8</f>
-        <v>52</v>
+        <f t="shared" ref="C8:C20" si="1">C7-D8</f>
+        <v>39</v>
       </c>
       <c r="D8" s="7">
-        <v>3.0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="6">
-        <v>45588.0</v>
+        <v>45588</v>
       </c>
       <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>36.142857142857146</v>
+      </c>
+      <c r="C9" s="7">
         <f t="shared" si="1"/>
-        <v>46.35714286</v>
-      </c>
-      <c r="C9" s="7">
-        <f t="shared" si="2"/>
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D9" s="7">
-        <v>5.0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="6">
-        <v>45589.0</v>
+        <v>45589</v>
       </c>
       <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>32.857142857142861</v>
+      </c>
+      <c r="C10" s="7">
         <f t="shared" si="1"/>
-        <v>42.14285714</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" si="2"/>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="6">
-        <v>45590.0</v>
+        <v>45590</v>
       </c>
       <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>29.571428571428577</v>
+      </c>
+      <c r="C11" s="7">
         <f t="shared" si="1"/>
-        <v>37.92857143</v>
-      </c>
-      <c r="C11" s="7">
-        <f t="shared" si="2"/>
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>2.0</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="6">
-        <v>45591.0</v>
+        <v>45591</v>
       </c>
       <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>26.285714285714292</v>
+      </c>
+      <c r="C12" s="7">
         <f t="shared" si="1"/>
-        <v>33.71428571</v>
-      </c>
-      <c r="C12" s="7">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7">
-        <v>1.0</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="6">
-        <v>45592.0</v>
+        <v>45592</v>
       </c>
       <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>23.000000000000007</v>
+      </c>
+      <c r="C13" s="7">
         <f t="shared" si="1"/>
-        <v>29.5</v>
-      </c>
-      <c r="C13" s="7">
-        <f t="shared" si="2"/>
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>2.0</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="6">
-        <v>45593.0</v>
+        <v>45593</v>
       </c>
       <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>19.714285714285722</v>
+      </c>
+      <c r="C14" s="7">
         <f t="shared" si="1"/>
-        <v>25.28571429</v>
-      </c>
-      <c r="C14" s="7">
-        <f t="shared" si="2"/>
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="6">
-        <v>45594.0</v>
+        <v>45594</v>
       </c>
       <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>16.428571428571438</v>
+      </c>
+      <c r="C15" s="7">
         <f t="shared" si="1"/>
-        <v>21.07142857</v>
-      </c>
-      <c r="C15" s="7">
-        <f t="shared" si="2"/>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D15" s="7">
-        <v>5.0</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="6">
-        <v>45595.0</v>
+        <v>45595</v>
       </c>
       <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>13.142857142857153</v>
+      </c>
+      <c r="C16" s="7">
         <f t="shared" si="1"/>
-        <v>16.85714286</v>
-      </c>
-      <c r="C16" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>6.0</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="6">
-        <v>45596.0</v>
+        <v>45596</v>
       </c>
       <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>9.8571428571428683</v>
+      </c>
+      <c r="C17" s="7">
         <f t="shared" si="1"/>
-        <v>12.64285714</v>
-      </c>
-      <c r="C17" s="7">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>4.0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="6">
-        <v>45597.0</v>
+        <v>45597</v>
       </c>
       <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>6.5714285714285827</v>
+      </c>
+      <c r="C18" s="7">
         <f t="shared" si="1"/>
-        <v>8.428571429</v>
-      </c>
-      <c r="C18" s="7">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>5.0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="6">
-        <v>45598.0</v>
+        <v>45598</v>
       </c>
       <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2857142857142971</v>
+      </c>
+      <c r="C19" s="7">
         <f t="shared" si="1"/>
-        <v>4.214285714</v>
-      </c>
-      <c r="C19" s="7">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>5.0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="6">
-        <v>45599.0</v>
+        <v>45599</v>
       </c>
       <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1546319456101628E-14</v>
+      </c>
+      <c r="C20" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="7">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>3.0</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -1835,8 +2096,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
